--- a/dealer-send/export1.xlsx
+++ b/dealer-send/export1.xlsx
@@ -668,10 +668,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD18"/>
+      <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1183,7 +1183,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alice keshishian</t>
+          <t>Misael Joey Vega</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1300,28 +1300,32 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>alice keshishian</t>
+          <t>Misael Joey Vega</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>800 north vail ave</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
+          <t>700 Ocean Ave</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Unit #3</t>
+        </is>
+      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>montebello</t>
+          <t>Long Branch</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>'90640</t>
+          <t>'07740</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1331,14 +1335,14 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>+13233331795</t>
+          <t>+16197291444</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>John Kretzschmar</t>
+          <t>JORGE MANZANILLA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1455,28 +1459,28 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>John Kretzschmar</t>
+          <t>JORGE MANZANILLA</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>99 Beasley Estates Dr</t>
+          <t>437 E Helen St</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Benson</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>'27504</t>
+          <t>'85705</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1486,14 +1490,14 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>+19197716786</t>
+          <t>+15205995643</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amanda Moulton</t>
+          <t>Irene Fang</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1503,7 +1507,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Direct Line - Postal</t>
+          <t>Direct Line - Postal eBay HK</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1610,41 +1614,45 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Amanda Moulton</t>
+          <t>Irene Fang</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>39 Snodgrass Street</t>
+          <t>217 Brentwood Dr</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Yea</t>
+          <t>Iowa City</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>'3717</t>
+          <t>'52245</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>+18083846269</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sung jin park</t>
+          <t>Tamara Clegg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1691,7 +1699,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Powder</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1761,40 +1769,342 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>sung jin park</t>
+          <t>Tamara Clegg</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>417, Hoam-ro, Gwanak-gu</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>107-1505, Sanjang Apartment</t>
-        </is>
-      </c>
+          <t>27 Arbordale Street</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>seoul</t>
+          <t>Floreat</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>KR-11</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>'08848</t>
+          <t>'6014</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Miranda Brough</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal eBay HK</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Miranda Brough</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>250 Brittany Ln</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Sequim</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>'98382</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>+17022804472</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Amanda Moulton</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Amanda Moulton</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>39 Snodgrass Street</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Yea</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>'3717</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4969,8 +5279,8 @@
     <col width="30.6640625" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="21.5" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
     <col width="80" customWidth="1" style="2" min="3" max="3"/>
-    <col width="9.1640625" customWidth="1" style="2" min="4" max="36"/>
-    <col width="9.1640625" customWidth="1" style="2" min="37" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="2" min="4" max="43"/>
+    <col width="9.1640625" customWidth="1" style="2" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5324,8 +5634,8 @@
   <cols>
     <col width="28.6640625" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
     <col width="11.1640625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.1640625" customWidth="1" style="6" min="3" max="35"/>
-    <col width="9.1640625" customWidth="1" style="6" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="3" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">

--- a/dealer-send/export1.xlsx
+++ b/dealer-send/export1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" tabRatio="601" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19020" tabRatio="601" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Content of Shipment" sheetId="1" state="visible" r:id="rId1"/>
@@ -668,10 +668,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="L3" s="22" t="inlineStr">
         <is>
-          <t>Powder</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="M3" s="11" t="n">
@@ -1183,7 +1183,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Misael Joey Vega</t>
+          <t>Tricia Chan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct Line - Postal eBay HK</t>
+          <t>Direct Line - Postal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Powder</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -1300,49 +1300,41 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Misael Joey Vega</t>
+          <t>Tricia Chan</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>700 Ocean Ave</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Unit #3</t>
-        </is>
-      </c>
+          <t>93 Swinton Crescent</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Long Branch</t>
+          <t>Thornhill</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>'07740</t>
+          <t>L4J 2W9</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>+16197291444</t>
-        </is>
-      </c>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JORGE MANZANILLA</t>
+          <t>carey allen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1352,7 +1344,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Direct Line - Postal eBay HK</t>
+          <t>Direct Line - Postal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1389,7 +1381,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Powder</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -1459,28 +1451,28 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>JORGE MANZANILLA</t>
+          <t>carey allen</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>437 E Helen St</t>
+          <t>215 lincoln ave sw</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Glen burnie</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>'85705</t>
+          <t>'21061</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1490,14 +1482,14 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>+15205995643</t>
+          <t>+17606940920</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Irene Fang</t>
+          <t>Liam Sardea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1507,7 +1499,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Direct Line - Postal eBay HK</t>
+          <t>Direct Line - Postal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1544,7 +1536,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Powder</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -1614,45 +1606,45 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Irene Fang</t>
+          <t>Liam Sardea</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>217 Brentwood Dr</t>
+          <t>59 Eliza Street</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Iowa City</t>
+          <t>Keilor Park</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>'52245</t>
+          <t>'3042</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>+18083846269</t>
+          <t>+18327641366</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tamara Clegg</t>
+          <t>Michelle Rubio Torres</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1699,7 +1691,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Powder</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1769,41 +1761,49 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Tamara Clegg</t>
+          <t>Michelle Rubio Torres</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>27 Arbordale Street</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>3701 Grapevine Mills Pkwy</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Apt 2025</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Floreat</t>
+          <t>Grapevine</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>'6014</t>
+          <t>'76051</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>+18175132470</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Miranda Brough</t>
+          <t>Scott Olds</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Direct Line - Postal eBay HK</t>
+          <t>Direct Line - Postal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Powder</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1920,28 +1920,28 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Miranda Brough</t>
+          <t>Scott Olds</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>250 Brittany Ln</t>
+          <t>683 COLFAX RD</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sequim</t>
+          <t>Wayne</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>'98382</t>
+          <t>'07470</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1951,14 +1951,14 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>+17022804472</t>
+          <t>+19736162690</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amanda Moulton</t>
+          <t>Celia Cheng</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Powder</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -2075,36 +2075,1900 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Amanda Moulton</t>
+          <t>Celia Cheng</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>39 Snodgrass Street</t>
+          <t>103-955 Thurlow St</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Yea</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>'3717</t>
+          <t>V6E1W5</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>+16047229426</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Deborah Applewhite</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Deborah Applewhite</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>4937 York St</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Apt.214</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Metairie</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>'70001</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>+15045571289</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>jeanette callahan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>jeanette callahan</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>607 n ironwood dr</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Arlington Heights</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>'60004</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>+18473982578</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Koa Pickering</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Koa Pickering</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>P.O. Box 1080</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Woodacre</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>'94973</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Christina Stratton</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Christina Stratton</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>9092 W Concordia Dr</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t># 3588</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Arizona City</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>'85123</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>+16022956719</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cheryl Crawford</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Cheryl Crawford</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>7944 Brosend Rd.</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Apt. 32</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Newburgh</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>'47630</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>+18126300409</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Anna Krømcke</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Anna Krømcke</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Kvitbekkgata 35</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Hamar</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>'2316</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>004740241675</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Enrique Casillas Zavala</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Enrique Casillas Zavala</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>gustavo garmendia 2176 colonia miguel hidalgo</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Culiacán</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>'80090</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>+526672114779</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Seifi Zaki</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Seifi Zaki</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>3051 SWEETVIOLET DR</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>SAN RAMON</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>'94582</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>+14084974490</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MARIA JOSE BRITO COSTA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>MARIA JOSE BRITO COSTA</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>RAriri zal Condomínio Itália residence qd 03 c 15</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>São Luís</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>65067-190</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Liudmila Plekhova</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Liudmila Plekhova</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>14605 134th Ave NE</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Woodinville</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>'98072</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>+12063542380</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bonnie CHILDS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Bonnie CHILDS</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>2245 Park Dr</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>'49203</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>+15172624275</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Victoria Tsveitel</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DealerSend</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Direct Line - Postal</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>skin care</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="n">
+        <v>39269099</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Carton</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Powder</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>DDU</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Ryan So</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Bitcontrol Limited</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>RM B1,BLK 2, 9/F,GOLDEN DRAGON</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>IND CTR, 162 TAI LIN PAI RD</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>KWAI CHUNG</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>96516506</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Victoria Tsveitel</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>10215 Haywood DR</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Silver Spring</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>'20902</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>+12404605788</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5279,8 +7143,8 @@
     <col width="30.6640625" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="21.5" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
     <col width="80" customWidth="1" style="2" min="3" max="3"/>
-    <col width="9.1640625" customWidth="1" style="2" min="4" max="43"/>
-    <col width="9.1640625" customWidth="1" style="2" min="44" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="2" min="4" max="62"/>
+    <col width="9.1640625" customWidth="1" style="2" min="63" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5634,8 +7498,8 @@
   <cols>
     <col width="28.6640625" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
     <col width="11.1640625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.1640625" customWidth="1" style="6" min="3" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="3" max="61"/>
+    <col width="9.1640625" customWidth="1" style="6" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
